--- a/gams/res_sum_Q_inrB_RA.xlsx
+++ b/gams/res_sum_Q_inrB_RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EADDB2-13E9-41CF-B5C8-E647EA6A9713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6575AC-107E-48E1-9E52-D0D84AE7DA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{E29CE16F-7219-4970-832F-F09BBB9E091B}"/>
+    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{E29CE16F-7219-4970-832F-F09BBB9E091B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>63.412499999999824</v>
+        <v>63.738999999999947</v>
       </c>
     </row>
   </sheetData>

--- a/gams/res_sum_Q_inrB_RA.xlsx
+++ b/gams/res_sum_Q_inrB_RA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6575AC-107E-48E1-9E52-D0D84AE7DA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC11933-2559-4B9A-A8CB-A6783D2161B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{E29CE16F-7219-4970-832F-F09BBB9E091B}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{E29CE16F-7219-4970-832F-F09BBB9E091B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>63.738999999999947</v>
+        <v>5.5061999999999971</v>
       </c>
     </row>
   </sheetData>

--- a/gams/res_sum_Q_inrB_RA.xlsx
+++ b/gams/res_sum_Q_inrB_RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC11933-2559-4B9A-A8CB-A6783D2161B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622F48F6-2DC8-4FFC-BC88-55AD17AD9F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{E29CE16F-7219-4970-832F-F09BBB9E091B}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{67F020D8-BD81-4592-96E8-0E9A79116647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEFDE61-0177-4ED7-BDBF-464C9D0CB12D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110FABE9-D978-4C3D-B493-0925393868CF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>5.5061999999999971</v>
+        <v>45.808</v>
       </c>
     </row>
   </sheetData>
